--- a/plan/forwork_Xl.xlsx
+++ b/plan/forwork_Xl.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinchangseob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinchangseob/Documents/gamebusdriver/plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>플레이어 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마법 공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마법 방어력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,6 +341,18 @@
   </si>
   <si>
     <t>2^4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇대 쳐야죽나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 마력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1000,11 +1008,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-892104704"/>
-        <c:axId val="-892102928"/>
+        <c:axId val="672046928"/>
+        <c:axId val="672049248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-892104704"/>
+        <c:axId val="672046928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1054,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-892102928"/>
+        <c:crossAx val="672049248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-892102928"/>
+        <c:axId val="672049248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1113,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-892104704"/>
+        <c:crossAx val="672046928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2060,7 @@
     <col min="4" max="4" width="1.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
@@ -2464,21 +2472,24 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
@@ -2486,7 +2497,7 @@
         <v>110</v>
       </c>
       <c r="F17">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>52</v>
@@ -2499,10 +2510,14 @@
       </c>
       <c r="J17" s="18">
         <f>H17*((E17-F17)/100)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <f>J23/J18</f>
+        <v>47.234042553191486</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -2513,10 +2528,10 @@
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>44</v>
@@ -2543,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
@@ -2564,7 +2579,7 @@
       </c>
       <c r="J19" s="18">
         <f>10+(((E17-F17)/10000)*H18)</f>
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19:O26" si="1">N$17*O18</f>
@@ -2574,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
@@ -2589,7 +2604,7 @@
       </c>
       <c r="J20" s="18">
         <f>10+(((F17-E17)/10000)*H19)</f>
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
@@ -2599,22 +2614,22 @@
         <v>8</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
         <v>69</v>
       </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
       <c r="I21" s="18" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J21" s="18">
-        <f>((H20*0.3)+E19)*F19</f>
-        <v>235</v>
+        <f>(F31)+(H19/10)</f>
+        <v>110</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
@@ -2624,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="Q21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
@@ -2635,13 +2650,12 @@
         <v>100</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="18">
         <f>(LN(H20)+LN(F25))*2</f>
         <v>18.420680743952367</v>
       </c>
-      <c r="K22" s="18"/>
       <c r="O22">
         <f t="shared" si="1"/>
         <v>32000</v>
@@ -2652,7 +2666,7 @@
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I23" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" s="18">
         <f>E28+(E17*H20)</f>
@@ -2665,13 +2679,13 @@
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
       <c r="I24" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="18">
         <f>F28+(J23/30)</f>
@@ -2690,9 +2704,12 @@
         <v>100</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="J25" s="18">
+        <f>(LN(H20)+LN(F25))*2</f>
+        <v>18.420680743952367</v>
+      </c>
       <c r="O25">
         <f t="shared" si="1"/>
         <v>256000</v>
@@ -2700,7 +2717,7 @@
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
@@ -2709,21 +2726,24 @@
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>73</v>
       </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
       <c r="G27" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="L27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.25">
@@ -2744,10 +2764,14 @@
       </c>
       <c r="J28" s="18">
         <f>H28*((E17-F17)/100)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
+      </c>
+      <c r="L28">
+        <f>J34/J29</f>
+        <v>354.5688960515713</v>
       </c>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.25">
@@ -2771,7 +2795,10 @@
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>50</v>
@@ -2784,13 +2811,16 @@
       </c>
       <c r="J30" s="18">
         <f>10+(((E17-F17)/10000)*H29)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>100</v>
       </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>51</v>
       </c>
@@ -2802,21 +2832,21 @@
       </c>
       <c r="J31" s="18">
         <f>10+(((F17-E17)/10000)*H30)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="I32" s="18" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J32" s="18">
-        <f>((H31*0.3)+E19)*F19</f>
-        <v>6205</v>
+        <f>(E17*10)+(H30/10)</f>
+        <v>3100</v>
       </c>
     </row>
     <row r="33" spans="6:30" x14ac:dyDescent="0.25">
       <c r="I33" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="18">
         <f>(LN(H31)+LN(F25))*2</f>
@@ -2825,7 +2855,7 @@
     </row>
     <row r="34" spans="6:30" x14ac:dyDescent="0.25">
       <c r="I34" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34" s="18">
         <f>E28+(E17*H31)</f>
@@ -2834,15 +2864,21 @@
     </row>
     <row r="35" spans="6:30" x14ac:dyDescent="0.25">
       <c r="I35" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="J35" s="18">
+        <f>F28+(J34/30)</f>
+        <v>73341.666666666672</v>
+      </c>
     </row>
     <row r="36" spans="6:30" x14ac:dyDescent="0.25">
       <c r="I36" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="J36" s="18">
+        <f>(LN(H31)+LN(F25))*2</f>
+        <v>29.017315477048438</v>
+      </c>
     </row>
     <row r="37" spans="6:30" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:30" ht="19" thickBot="1" x14ac:dyDescent="0.3">
